--- a/homework/59.xlsx
+++ b/homework/59.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A93D74-BC8B-41D1-B0FB-0E67FCA00860}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F51F09F-A35F-4562-883F-A774E9545272}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="2865" windowWidth="15330" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12645" yWindow="3195" windowWidth="15330" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>58.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,6 +26,90 @@
   </si>
   <si>
     <t>58.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have you got/do you have</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gary has(had)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he hasn't (he hasn't got / he doesn't have)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we haven't (we didn't have)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she hasn't  (she hasn't got / she doesn't have)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have you got/do you have  (did you have)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she is having a cup of tea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he is havingg a rest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>they are having a good time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>they are having dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he is having a bath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a nice trip!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>did you have a good weekend?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>did you have a good game?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a nice evening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>did you have a good holiday?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have something to eat?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>had a glass of water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a look</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>has(had) an accident</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,12 +148,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -97,6 +187,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -438,7 +529,7 @@
   <dimension ref="A3:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,42 +552,54 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
@@ -515,35 +618,45 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="6">
         <v>4</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="6">
         <v>5</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="6">
         <v>6</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
@@ -562,35 +675,45 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="6">
         <v>4</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="6">
         <v>5</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="6">
         <v>6</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="6">
         <v>7</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
@@ -609,35 +732,45 @@
       <c r="B26" s="6">
         <v>2</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="6">
         <v>3</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="6">
         <v>5</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>6</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
